--- a/2020_docs/04_詳細設計/データベース設計/辞書・ID定義設計.xlsx
+++ b/2020_docs/04_詳細設計/データベース設計/辞書・ID定義設計.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masudakento\git\portfolio2023\2020_docs\04_詳細設計\データベース設計\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE08A5-C9C8-4211-BF36-C3AB77E8F531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="503" windowWidth="28800" windowHeight="13980" activeTab="3"/>
+    <workbookView xWindow="3735" yWindow="3825" windowWidth="23130" windowHeight="13650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="430">
   <si>
     <t>変更履歴</t>
     <phoneticPr fontId="1"/>
@@ -1643,7 +1649,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1823,7 +1829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1857,40 +1863,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
@@ -1905,55 +1884,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1970,6 +1904,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2264,19 +2201,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
@@ -2473,12 +2408,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
@@ -2522,28 +2455,28 @@
       <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="13" t="s">
         <v>288</v>
       </c>
     </row>
@@ -2559,28 +2492,28 @@
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="13" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2596,28 +2529,28 @@
       <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2633,14 +2566,14 @@
       <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A6" s="7" t="s">
@@ -2654,14 +2587,14 @@
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A7" s="7" t="s">
@@ -2675,14 +2608,14 @@
       <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A8" s="7" t="s">
@@ -2741,23 +2674,23 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A11" s="7" t="s">
@@ -2768,23 +2701,23 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="12" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A12" s="7" t="s">
@@ -2795,23 +2728,23 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="12" t="s">
+      <c r="H12" s="11"/>
+      <c r="I12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A13" s="7" t="s">
@@ -2822,23 +2755,23 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A14" s="7" t="s">
@@ -2849,23 +2782,23 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A15" s="7" t="s">
@@ -2876,23 +2809,23 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="12" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A16" s="7" t="s">
@@ -2903,23 +2836,23 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="12" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A17" s="7" t="s">
@@ -2930,23 +2863,23 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="12" t="s">
+      <c r="H17" s="11"/>
+      <c r="I17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A18" s="7" t="s">
@@ -2957,23 +2890,23 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="12" t="s">
+      <c r="H18" s="11"/>
+      <c r="I18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A19" s="7" t="s">
@@ -2984,22 +2917,22 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A20" s="7" t="s">
@@ -3010,22 +2943,22 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A21" s="7" t="s">
@@ -3036,22 +2969,22 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A22" s="7" t="s">
@@ -3062,22 +2995,22 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A23" s="7" t="s">
@@ -3088,22 +3021,22 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A24" s="7" t="s">
@@ -3114,22 +3047,22 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A25" s="7" t="s">
@@ -3140,22 +3073,22 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A26" s="7" t="s">
@@ -3166,22 +3099,22 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A27" s="7" t="s">
@@ -3192,22 +3125,22 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A28" s="7" t="s">
@@ -3218,22 +3151,22 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A29" s="7" t="s">
@@ -3244,22 +3177,22 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A30" s="7" t="s">
@@ -3270,22 +3203,22 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A31" s="7" t="s">
@@ -3296,22 +3229,22 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A32" s="7" t="s">
@@ -3322,22 +3255,22 @@
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A33" s="7" t="s">
@@ -3348,22 +3281,22 @@
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A34" s="7" t="s">
@@ -3374,22 +3307,22 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A35" s="7" t="s">
@@ -3400,22 +3333,22 @@
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A36" s="7" t="s">
@@ -3426,44 +3359,48 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-    </row>
-    <row r="37" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.8">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="I37" s="36" t="s">
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.8">
+      <c r="A37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="I37" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="J37" s="36" t="s">
+      <c r="J37" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="K37" s="36" t="s">
+      <c r="K37" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="L37" s="36" t="s">
+      <c r="L37" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A38" s="7" t="s">
@@ -3474,22 +3411,22 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A39" s="7" t="s">
@@ -3500,22 +3437,22 @@
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="K39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="L39" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A40" s="7" t="s">
@@ -3526,22 +3463,22 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="K40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A41" s="7" t="s">
@@ -3552,22 +3489,22 @@
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L41" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A42" s="7" t="s">
@@ -3578,22 +3515,22 @@
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L42" s="12" t="s">
+      <c r="L42" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A43" s="7" t="s">
@@ -3604,22 +3541,22 @@
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L43" s="12" t="s">
+      <c r="L43" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A44" s="7" t="s">
@@ -3630,22 +3567,22 @@
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="K44" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L44" s="12" t="s">
+      <c r="L44" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A45" s="7" t="s">
@@ -3656,22 +3593,22 @@
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L45" s="12" t="s">
+      <c r="L45" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A46" s="7" t="s">
@@ -3682,22 +3619,22 @@
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="I46" s="13" t="s">
+      <c r="I46" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K46" s="13" t="s">
+      <c r="K46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L46" s="13" t="s">
+      <c r="L46" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A47" s="7" t="s">
@@ -3708,22 +3645,22 @@
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="I47" s="13" t="s">
+      <c r="I47" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K47" s="13" t="s">
+      <c r="K47" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L47" s="13" t="s">
+      <c r="L47" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A48" s="7" t="s">
@@ -3734,22 +3671,22 @@
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="I48" s="13" t="s">
+      <c r="I48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K48" s="13" t="s">
+      <c r="K48" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L48" s="13" t="s">
+      <c r="L48" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A49" s="7" t="s">
@@ -3760,22 +3697,22 @@
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="I49" s="13" t="s">
+      <c r="I49" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K49" s="13" t="s">
+      <c r="K49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L49" s="13" t="s">
+      <c r="L49" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A50" s="7" t="s">
@@ -3786,22 +3723,22 @@
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="I50" s="13" t="s">
+      <c r="I50" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K50" s="13" t="s">
+      <c r="K50" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L50" s="13" t="s">
+      <c r="L50" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A51" s="7" t="s">
@@ -3812,22 +3749,22 @@
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
-      <c r="I51" s="13" t="s">
+      <c r="I51" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J51" s="13" t="s">
+      <c r="J51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K51" s="13" t="s">
+      <c r="K51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L51" s="13" t="s">
+      <c r="L51" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A52" s="7" t="s">
@@ -3838,22 +3775,22 @@
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K52" s="13" t="s">
+      <c r="K52" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L52" s="13" t="s">
+      <c r="L52" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A53" s="7" t="s">
@@ -3864,22 +3801,22 @@
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
-      <c r="I53" s="13" t="s">
+      <c r="I53" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="13" t="s">
+      <c r="J53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K53" s="13" t="s">
+      <c r="K53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L53" s="13" t="s">
+      <c r="L53" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A54" s="7" t="s">
@@ -3890,22 +3827,22 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="I54" s="13" t="s">
+      <c r="I54" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J54" s="13" t="s">
+      <c r="J54" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K54" s="13" t="s">
+      <c r="K54" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L54" s="13" t="s">
+      <c r="L54" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A55" s="7" t="s">
@@ -3916,22 +3853,22 @@
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="I55" s="13" t="s">
+      <c r="I55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J55" s="13" t="s">
+      <c r="J55" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K55" s="13" t="s">
+      <c r="K55" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="L55" s="13" t="s">
+      <c r="L55" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A56" s="7" t="s">
@@ -3942,22 +3879,22 @@
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="I56" s="13" t="s">
+      <c r="I56" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J56" s="13" t="s">
+      <c r="J56" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K56" s="13" t="s">
+      <c r="K56" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L56" s="13" t="s">
+      <c r="L56" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A57" s="7" t="s">
@@ -3968,22 +3905,22 @@
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
-      <c r="I57" s="13" t="s">
+      <c r="I57" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J57" s="13" t="s">
+      <c r="J57" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K57" s="13" t="s">
+      <c r="K57" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L57" s="13" t="s">
+      <c r="L57" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A58" s="7" t="s">
@@ -3994,22 +3931,22 @@
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
-      <c r="I58" s="13" t="s">
+      <c r="I58" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J58" s="13" t="s">
+      <c r="J58" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K58" s="13" t="s">
+      <c r="K58" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L58" s="13" t="s">
+      <c r="L58" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A59" s="7" t="s">
@@ -4020,22 +3957,22 @@
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
-      <c r="I59" s="13" t="s">
+      <c r="I59" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="J59" s="13" t="s">
+      <c r="J59" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K59" s="13" t="s">
+      <c r="K59" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="L59" s="13" t="s">
+      <c r="L59" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A60" s="7" t="s">
@@ -4046,22 +3983,22 @@
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
-      <c r="I60" s="13" t="s">
+      <c r="I60" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="J60" s="13" t="s">
+      <c r="J60" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K60" s="13" t="s">
+      <c r="K60" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L60" s="13" t="s">
+      <c r="L60" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A61" s="7" t="s">
@@ -4072,22 +4009,22 @@
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
-      <c r="I61" s="13" t="s">
+      <c r="I61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J61" s="13" t="s">
+      <c r="J61" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K61" s="13" t="s">
+      <c r="K61" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L61" s="13" t="s">
+      <c r="L61" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A62" s="7" t="s">
@@ -4098,22 +4035,22 @@
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
-      <c r="I62" s="13" t="s">
+      <c r="I62" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="J62" s="13" t="s">
+      <c r="J62" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K62" s="13" t="s">
+      <c r="K62" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L62" s="13" t="s">
+      <c r="L62" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A63" s="7" t="s">
@@ -4124,22 +4061,22 @@
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
-      <c r="I63" s="13" t="s">
+      <c r="I63" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J63" s="13" t="s">
+      <c r="J63" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K63" s="13" t="s">
+      <c r="K63" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L63" s="13" t="s">
+      <c r="L63" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A64" s="7" t="s">
@@ -4150,22 +4087,22 @@
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
-      <c r="I64" s="13" t="s">
+      <c r="I64" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J64" s="13" t="s">
+      <c r="J64" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K64" s="13" t="s">
+      <c r="K64" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L64" s="13" t="s">
+      <c r="L64" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A65" s="7" t="s">
@@ -4176,22 +4113,22 @@
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
-      <c r="I65" s="13" t="s">
+      <c r="I65" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J65" s="13" t="s">
+      <c r="J65" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K65" s="13" t="s">
+      <c r="K65" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="L65" s="13" t="s">
+      <c r="L65" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A66" s="7" t="s">
@@ -4202,22 +4139,22 @@
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
-      <c r="I66" s="13" t="s">
+      <c r="I66" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J66" s="13" t="s">
+      <c r="J66" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K66" s="13" t="s">
+      <c r="K66" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="L66" s="13" t="s">
+      <c r="L66" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A67" s="7" t="s">
@@ -4228,22 +4165,22 @@
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
-      <c r="I67" s="13" t="s">
+      <c r="I67" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J67" s="13" t="s">
+      <c r="J67" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="K67" s="13" t="s">
+      <c r="K67" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L67" s="13" t="s">
+      <c r="L67" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A68" s="7" t="s">
@@ -4254,22 +4191,22 @@
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="I68" s="13" t="s">
+      <c r="I68" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J68" s="13" t="s">
+      <c r="J68" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K68" s="13" t="s">
+      <c r="K68" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L68" s="13" t="s">
+      <c r="L68" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A69" s="7" t="s">
@@ -4280,22 +4217,22 @@
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
-      <c r="I69" s="13" t="s">
+      <c r="I69" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J69" s="13" t="s">
+      <c r="J69" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="K69" s="13" t="s">
+      <c r="K69" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L69" s="13" t="s">
+      <c r="L69" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A70" s="7" t="s">
@@ -4306,22 +4243,22 @@
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
-      <c r="I70" s="13" t="s">
+      <c r="I70" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J70" s="13" t="s">
+      <c r="J70" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K70" s="13" t="s">
+      <c r="K70" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L70" s="13" t="s">
+      <c r="L70" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A71" s="7" t="s">
@@ -4332,22 +4269,22 @@
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
-      <c r="I71" s="13" t="s">
+      <c r="I71" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J71" s="13" t="s">
+      <c r="J71" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="K71" s="13" t="s">
+      <c r="K71" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="L71" s="13" t="s">
+      <c r="L71" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A72" s="7" t="s">
@@ -4358,22 +4295,22 @@
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
-      <c r="I72" s="13" t="s">
+      <c r="I72" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J72" s="13" t="s">
+      <c r="J72" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K72" s="13" t="s">
+      <c r="K72" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L72" s="13" t="s">
+      <c r="L72" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A73" s="7" t="s">
@@ -4384,22 +4321,22 @@
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
-      <c r="I73" s="13" t="s">
+      <c r="I73" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K73" s="13" t="s">
+      <c r="K73" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L73" s="13" t="s">
+      <c r="L73" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A74" s="7" t="s">
@@ -4410,22 +4347,22 @@
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="K74" s="13" t="s">
+      <c r="K74" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L74" s="13" t="s">
+      <c r="L74" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A75" s="7" t="s">
@@ -4436,22 +4373,22 @@
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
-      <c r="I75" s="13" t="s">
+      <c r="I75" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K75" s="13" t="s">
+      <c r="K75" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="L75" s="13" t="s">
+      <c r="L75" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A76" s="7" t="s">
@@ -4462,22 +4399,22 @@
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
-      <c r="I76" s="13" t="s">
+      <c r="I76" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="J76" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K76" s="13" t="s">
+      <c r="K76" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="L76" s="13" t="s">
+      <c r="L76" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A77" s="7" t="s">
@@ -4488,22 +4425,22 @@
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
-      <c r="I77" s="13" t="s">
+      <c r="I77" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J77" s="13" t="s">
+      <c r="J77" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K77" s="13" t="s">
+      <c r="K77" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="L77" s="13" t="s">
+      <c r="L77" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A78" s="7" t="s">
@@ -4514,22 +4451,22 @@
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
-      <c r="I78" s="13" t="s">
+      <c r="I78" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J78" s="13" t="s">
+      <c r="J78" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K78" s="13" t="s">
+      <c r="K78" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L78" s="13" t="s">
+      <c r="L78" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A79" s="7" t="s">
@@ -4540,22 +4477,22 @@
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
-      <c r="I79" s="13" t="s">
+      <c r="I79" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J79" s="13" t="s">
+      <c r="J79" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K79" s="13" t="s">
+      <c r="K79" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L79" s="13" t="s">
+      <c r="L79" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A80" s="7" t="s">
@@ -4566,22 +4503,22 @@
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
-      <c r="I80" s="13" t="s">
+      <c r="I80" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J80" s="13" t="s">
+      <c r="J80" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K80" s="13" t="s">
+      <c r="K80" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L80" s="13" t="s">
+      <c r="L80" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A81" s="7" t="s">
@@ -4592,22 +4529,22 @@
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
-      <c r="I81" s="13" t="s">
+      <c r="I81" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J81" s="13" t="s">
+      <c r="J81" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="K81" s="13" t="s">
+      <c r="K81" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="L81" s="13" t="s">
+      <c r="L81" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A82" s="7" t="s">
@@ -4618,22 +4555,22 @@
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
-      <c r="I82" s="13" t="s">
+      <c r="I82" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J82" s="13" t="s">
+      <c r="J82" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K82" s="13" t="s">
+      <c r="K82" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="L82" s="13" t="s">
+      <c r="L82" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A83" s="7" t="s">
@@ -4644,22 +4581,22 @@
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
-      <c r="I83" s="13" t="s">
+      <c r="I83" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J83" s="13" t="s">
+      <c r="J83" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K83" s="13" t="s">
+      <c r="K83" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="L83" s="13" t="s">
+      <c r="L83" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.8">
       <c r="A84" s="7" t="s">
@@ -4670,731 +4607,731 @@
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
-      <c r="I84" s="13" t="s">
+      <c r="I84" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J84" s="13" t="s">
+      <c r="J84" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K84" s="13" t="s">
+      <c r="K84" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="L84" s="13" t="s">
+      <c r="L84" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="I85" s="13" t="s">
+      <c r="I85" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="J85" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="K85" s="13" t="s">
+      <c r="K85" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="L85" s="13" t="s">
+      <c r="L85" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="I86" s="13" t="s">
+      <c r="I86" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J86" s="13" t="s">
+      <c r="J86" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K86" s="13" t="s">
+      <c r="K86" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L86" s="13" t="s">
+      <c r="L86" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="I87" s="13" t="s">
+      <c r="I87" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J87" s="13" t="s">
+      <c r="J87" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K87" s="13" t="s">
+      <c r="K87" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="L87" s="13" t="s">
+      <c r="L87" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="I88" s="13" t="s">
+      <c r="I88" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J88" s="13" t="s">
+      <c r="J88" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="K88" s="13" t="s">
+      <c r="K88" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="L88" s="13" t="s">
+      <c r="L88" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="I89" s="13" t="s">
+      <c r="I89" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J89" s="13" t="s">
+      <c r="J89" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="K89" s="13" t="s">
+      <c r="K89" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L89" s="13" t="s">
+      <c r="L89" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="I90" s="13" t="s">
+      <c r="I90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J90" s="13" t="s">
+      <c r="J90" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K90" s="13" t="s">
+      <c r="K90" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L90" s="13" t="s">
+      <c r="L90" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="I91" s="13" t="s">
+      <c r="I91" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J91" s="13" t="s">
+      <c r="J91" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K91" s="13" t="s">
+      <c r="K91" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="L91" s="13" t="s">
+      <c r="L91" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="I92" s="13" t="s">
+      <c r="I92" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J92" s="13" t="s">
+      <c r="J92" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="K92" s="13" t="s">
+      <c r="K92" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="L92" s="13" t="s">
+      <c r="L92" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
-      <c r="O92" s="13"/>
-      <c r="P92" s="13"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="I93" s="13" t="s">
+      <c r="I93" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J93" s="13" t="s">
+      <c r="J93" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="K93" s="13" t="s">
+      <c r="K93" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L93" s="13" t="s">
+      <c r="L93" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="13"/>
-      <c r="P93" s="13"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="I94" s="13" t="s">
+      <c r="I94" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="K94" s="13" t="s">
+      <c r="K94" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L94" s="13" t="s">
+      <c r="L94" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
-      <c r="O94" s="13"/>
-      <c r="P94" s="13"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="I95" s="13" t="s">
+      <c r="I95" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J95" s="13" t="s">
+      <c r="J95" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K95" s="13" t="s">
+      <c r="K95" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L95" s="13" t="s">
+      <c r="L95" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M95" s="13"/>
-      <c r="N95" s="13"/>
-      <c r="O95" s="13"/>
-      <c r="P95" s="13"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.8">
-      <c r="I96" s="12" t="s">
+      <c r="I96" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="J96" s="12" t="s">
+      <c r="J96" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="K96" s="12" t="s">
+      <c r="K96" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="L96" s="13" t="s">
+      <c r="L96" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M96" s="13"/>
-      <c r="N96" s="13"/>
-      <c r="O96" s="13"/>
-      <c r="P96" s="13"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
     </row>
     <row r="97" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I97" s="13" t="s">
+      <c r="I97" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J97" s="13" t="s">
+      <c r="J97" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K97" s="13" t="s">
+      <c r="K97" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L97" s="13" t="s">
+      <c r="L97" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
-      <c r="O97" s="13"/>
-      <c r="P97" s="13"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
     </row>
     <row r="98" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I98" s="13" t="s">
+      <c r="I98" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J98" s="13" t="s">
+      <c r="J98" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K98" s="13" t="s">
+      <c r="K98" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L98" s="13" t="s">
+      <c r="L98" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M98" s="13"/>
-      <c r="N98" s="13"/>
-      <c r="O98" s="13"/>
-      <c r="P98" s="13"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
     </row>
     <row r="99" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I99" s="13" t="s">
+      <c r="I99" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="J99" s="13" t="s">
+      <c r="J99" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="K99" s="13" t="s">
+      <c r="K99" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="L99" s="13" t="s">
+      <c r="L99" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M99" s="13"/>
-      <c r="N99" s="13"/>
-      <c r="O99" s="13"/>
-      <c r="P99" s="13"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
     </row>
     <row r="100" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I100" s="13" t="s">
+      <c r="I100" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J100" s="13" t="s">
+      <c r="J100" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K100" s="13" t="s">
+      <c r="K100" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="L100" s="13" t="s">
+      <c r="L100" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
-      <c r="O100" s="13"/>
-      <c r="P100" s="13"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
     </row>
     <row r="101" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I101" s="13" t="s">
+      <c r="I101" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J101" s="13" t="s">
+      <c r="J101" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K101" s="13" t="s">
+      <c r="K101" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="L101" s="13" t="s">
+      <c r="L101" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="13"/>
-      <c r="P101" s="13"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
     </row>
     <row r="102" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I102" s="13" t="s">
+      <c r="I102" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J102" s="13" t="s">
+      <c r="J102" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="K102" s="13" t="s">
+      <c r="K102" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="L102" s="13" t="s">
+      <c r="L102" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-      <c r="O102" s="13"/>
-      <c r="P102" s="13"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
     </row>
     <row r="103" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I103" s="13" t="s">
+      <c r="I103" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J103" s="13" t="s">
+      <c r="J103" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="K103" s="13" t="s">
+      <c r="K103" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L103" s="13" t="s">
+      <c r="L103" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="13"/>
-      <c r="P103" s="13"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
     </row>
     <row r="104" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I104" s="13" t="s">
+      <c r="I104" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J104" s="13" t="s">
+      <c r="J104" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K104" s="13" t="s">
+      <c r="K104" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="L104" s="13" t="s">
+      <c r="L104" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
-      <c r="O104" s="13"/>
-      <c r="P104" s="13"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
     </row>
     <row r="105" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I105" s="13" t="s">
+      <c r="I105" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="J105" s="13" t="s">
+      <c r="J105" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K105" s="13" t="s">
+      <c r="K105" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L105" s="13" t="s">
+      <c r="L105" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="13"/>
-      <c r="P105" s="13"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
     </row>
     <row r="106" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I106" s="13" t="s">
+      <c r="I106" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J106" s="13" t="s">
+      <c r="J106" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="K106" s="13" t="s">
+      <c r="K106" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="L106" s="13" t="s">
+      <c r="L106" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
-      <c r="O106" s="13"/>
-      <c r="P106" s="13"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
     </row>
     <row r="107" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I107" s="13" t="s">
+      <c r="I107" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J107" s="13" t="s">
+      <c r="J107" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K107" s="13" t="s">
+      <c r="K107" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="L107" s="13" t="s">
+      <c r="L107" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
     </row>
     <row r="108" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I108" s="13" t="s">
+      <c r="I108" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J108" s="13" t="s">
+      <c r="J108" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="K108" s="13" t="s">
+      <c r="K108" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L108" s="13" t="s">
+      <c r="L108" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
-      <c r="O108" s="13"/>
-      <c r="P108" s="13"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
     </row>
     <row r="109" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I109" s="29" t="s">
+      <c r="I109" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="J109" s="29" t="s">
+      <c r="J109" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="K109" s="29" t="s">
+      <c r="K109" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="L109" s="28" t="s">
+      <c r="L109" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
     </row>
     <row r="110" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I110" s="12" t="s">
+      <c r="I110" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="J110" s="12" t="s">
+      <c r="J110" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="K110" s="12" t="s">
+      <c r="K110" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="L110" s="28" t="s">
+      <c r="L110" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
     </row>
     <row r="111" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I111" s="12" t="s">
+      <c r="I111" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J111" s="12" t="s">
+      <c r="J111" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="K111" s="36" t="s">
+      <c r="K111" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="L111" s="28" t="s">
+      <c r="L111" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
     </row>
     <row r="112" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I112" s="12" t="s">
+      <c r="I112" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="J112" s="36" t="s">
+      <c r="J112" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="K112" s="36" t="s">
+      <c r="K112" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="L112" s="28" t="s">
+      <c r="L112" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
     </row>
     <row r="113" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I113" s="12" t="s">
+      <c r="I113" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="J113" s="12" t="s">
+      <c r="J113" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="K113" s="12" t="s">
+      <c r="K113" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="L113" s="28" t="s">
+      <c r="L113" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
     </row>
     <row r="114" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I114" s="12" t="s">
+      <c r="I114" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="J114" s="12" t="s">
+      <c r="J114" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="K114" s="36" t="s">
+      <c r="K114" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="L114" s="12" t="s">
+      <c r="L114" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
     </row>
     <row r="115" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I115" s="12" t="s">
+      <c r="I115" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="J115" s="12" t="s">
+      <c r="J115" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="K115" s="36" t="s">
+      <c r="K115" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="L115" s="12" t="s">
+      <c r="L115" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M115" s="12"/>
-      <c r="N115" s="12"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
     </row>
     <row r="116" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I116" s="12" t="s">
+      <c r="I116" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="J116" s="12" t="s">
+      <c r="J116" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="K116" s="36" t="s">
+      <c r="K116" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="L116" s="12" t="s">
+      <c r="L116" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M116" s="12"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
     </row>
     <row r="117" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I117" s="12" t="s">
+      <c r="I117" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="J117" s="12" t="s">
+      <c r="J117" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="K117" s="36" t="s">
+      <c r="K117" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="L117" s="36" t="s">
+      <c r="L117" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M117" s="12"/>
-      <c r="N117" s="12"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
     </row>
     <row r="118" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="12"/>
-      <c r="N118" s="12"/>
-      <c r="O118" s="12"/>
-      <c r="P118" s="12"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
     </row>
     <row r="119" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="12"/>
-      <c r="P119" s="12"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
     </row>
     <row r="120" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="12"/>
-      <c r="N120" s="12"/>
-      <c r="O120" s="12"/>
-      <c r="P120" s="12"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
     </row>
     <row r="121" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
-      <c r="M121" s="12"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="12"/>
-      <c r="P121" s="12"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
     </row>
     <row r="122" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="12"/>
-      <c r="M122" s="12"/>
-      <c r="N122" s="12"/>
-      <c r="O122" s="12"/>
-      <c r="P122" s="12"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
     </row>
     <row r="123" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="12"/>
-      <c r="M123" s="12"/>
-      <c r="N123" s="12"/>
-      <c r="O123" s="12"/>
-      <c r="P123" s="12"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
     </row>
     <row r="124" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="12"/>
-      <c r="M124" s="12"/>
-      <c r="N124" s="12"/>
-      <c r="O124" s="12"/>
-      <c r="P124" s="12"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
     </row>
     <row r="125" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="12"/>
-      <c r="M125" s="12"/>
-      <c r="N125" s="12"/>
-      <c r="O125" s="12"/>
-      <c r="P125" s="12"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
     </row>
     <row r="126" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="12"/>
-      <c r="M126" s="12"/>
-      <c r="N126" s="12"/>
-      <c r="O126" s="12"/>
-      <c r="P126" s="12"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
     </row>
     <row r="127" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12"/>
-      <c r="L127" s="12"/>
-      <c r="M127" s="12"/>
-      <c r="N127" s="12"/>
-      <c r="O127" s="12"/>
-      <c r="P127" s="12"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
     </row>
     <row r="128" spans="9:16" x14ac:dyDescent="0.8">
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="12"/>
-      <c r="M128" s="12"/>
-      <c r="N128" s="12"/>
-      <c r="O128" s="12"/>
-      <c r="P128" s="12"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D84 B2:B84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B84 D2:D84" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"新規,更新,削除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5404,12 +5341,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:M22"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
@@ -5425,11 +5360,11 @@
     <col min="12" max="12" width="13.71875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.71875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.27734375" style="15" customWidth="1"/>
-    <col min="16" max="16" width="15.21875" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.27734375" style="12" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
@@ -5445,11 +5380,11 @@
       <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A2" s="7" t="s">
@@ -5460,34 +5395,34 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A3" s="7" t="s">
@@ -5498,7 +5433,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="1"/>
@@ -5506,12 +5441,12 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A4" s="7" t="s">
@@ -5522,7 +5457,7 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -5540,22 +5475,22 @@
       <c r="M4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="P4" s="41" t="s">
+      <c r="P4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="41" t="s">
+      <c r="Q4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="41" t="s">
+      <c r="S4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5568,7 +5503,7 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="1"/>
@@ -5576,18 +5511,18 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="41" t="s">
+      <c r="N5" s="1"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="Q5" s="41" t="s">
+      <c r="Q5" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="R5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5600,7 +5535,7 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="1"/>
@@ -5608,18 +5543,18 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="41" t="s">
+      <c r="N6" s="1"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="Q6" s="41" t="s">
+      <c r="Q6" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="1" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5632,7 +5567,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="1"/>
@@ -5640,18 +5575,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="41">
+      <c r="N7" s="1"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="1">
         <v>8</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="1">
         <v>8</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="1">
         <v>8</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="1">
         <v>8</v>
       </c>
     </row>
@@ -5673,11 +5608,11 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:19" ht="20.25" thickTop="1" x14ac:dyDescent="0.8">
       <c r="A9" s="7" t="s">
@@ -5707,13 +5642,13 @@
       <c r="N9" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="39.75" x14ac:dyDescent="0.8">
       <c r="A10" s="7" t="s">
@@ -5724,7 +5659,7 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="1" t="s">
         <v>364</v>
       </c>
@@ -5740,16 +5675,16 @@
       <c r="M10" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A11" s="7" t="s">
@@ -5760,34 +5695,32 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="14">
         <v>1</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="O11" s="26" t="s">
+      <c r="O11" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A12" s="7" t="s">
@@ -5798,34 +5731,32 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="18" t="s">
+      <c r="H12" s="11"/>
+      <c r="I12" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="1">
         <v>2</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="1">
         <v>5</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A13" s="7" t="s">
@@ -5836,34 +5767,32 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="18" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="1">
         <v>3</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A14" s="7" t="s">
@@ -5874,62 +5803,60 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="1">
         <v>-2</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-    </row>
-    <row r="15" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.8">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="36" t="s">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="I15" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="1">
         <v>-1</v>
       </c>
-      <c r="M15" s="36" t="s">
+      <c r="M15" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="N15" s="36" t="s">
+      <c r="N15" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O15" s="19"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A16" s="7" t="s">
@@ -5940,32 +5867,31 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="1">
         <v>8</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="1">
         <v>1</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="1">
         <v>2</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A17" s="7" t="s">
@@ -5976,32 +5902,31 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="1">
         <v>8</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="1">
         <v>2</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="1">
         <v>2</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A18" s="7" t="s">
@@ -6012,32 +5937,31 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="1">
         <v>8</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="1">
         <v>3</v>
       </c>
-      <c r="M18" s="36" t="s">
+      <c r="M18" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="1">
         <v>4</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A19" s="7" t="s">
@@ -6048,62 +5972,60 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="1">
         <v>-2</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N19" s="18" t="s">
+      <c r="N19" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-    </row>
-    <row r="20" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.8">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="28" t="s">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="I20" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="1">
         <v>-1</v>
       </c>
-      <c r="M20" s="36" t="s">
+      <c r="M20" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="N20" s="36" t="s">
+      <c r="N20" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O20" s="19"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="79.5" x14ac:dyDescent="0.8">
       <c r="A21" s="7" t="s">
@@ -6114,32 +6036,31 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="1">
         <v>10</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="1">
         <v>1</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="1">
         <v>6</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A22" s="7" t="s">
@@ -6150,31 +6071,31 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="I22" s="28" t="s">
+      <c r="I22" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="1">
         <v>10</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="1">
         <v>2</v>
       </c>
-      <c r="M22" s="36" t="s">
+      <c r="M22" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="1">
         <v>4</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A23" s="7" t="s">
@@ -6185,58 +6106,58 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="1">
         <v>-2</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="19" t="s">
+      <c r="N23" s="1"/>
+      <c r="O23" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-    </row>
-    <row r="24" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.8">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="I24" s="36" t="s">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="I24" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K24" s="36" t="s">
+      <c r="K24" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="1">
         <v>-1</v>
       </c>
-      <c r="M24" s="36" t="s">
+      <c r="M24" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="N24" s="36" t="s">
+      <c r="N24" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="39.75" x14ac:dyDescent="0.8">
       <c r="A25" s="7" t="s">
@@ -6247,31 +6168,31 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="1">
         <v>6</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="1">
         <v>1</v>
       </c>
-      <c r="M25" s="18" t="s">
+      <c r="M25" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="1">
         <v>2</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="O25" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A26" s="7" t="s">
@@ -6282,31 +6203,31 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="1">
         <v>6</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="1">
         <v>2</v>
       </c>
-      <c r="M26" s="36" t="s">
+      <c r="M26" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="1">
         <v>4</v>
       </c>
-      <c r="O26" s="19" t="s">
+      <c r="O26" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="39.75" x14ac:dyDescent="0.8">
       <c r="A27" s="7" t="s">
@@ -6317,60 +6238,60 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="J27" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K27" s="36" t="s">
+      <c r="K27" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="1">
         <v>-2</v>
       </c>
-      <c r="M27" s="18" t="s">
+      <c r="M27" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N27" s="18" t="s">
+      <c r="N27" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="O27" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-    </row>
-    <row r="28" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.8">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="I28" s="36" t="s">
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="I28" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="J28" s="36" t="s">
+      <c r="J28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="1">
         <v>-1</v>
       </c>
-      <c r="M28" s="36" t="s">
+      <c r="M28" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="N28" s="36" t="s">
+      <c r="N28" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A29" s="7" t="s">
@@ -6381,31 +6302,31 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K29" s="36" t="s">
+      <c r="K29" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="1">
         <v>1</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="M29" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O29" s="19" t="s">
+      <c r="O29" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A30" s="7" t="s">
@@ -6416,31 +6337,31 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K30" s="36" t="s">
+      <c r="K30" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="1">
         <v>2</v>
       </c>
-      <c r="M30" s="18" t="s">
+      <c r="M30" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="N30" s="18" t="s">
+      <c r="N30" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O30" s="19" t="s">
+      <c r="O30" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A31" s="7" t="s">
@@ -6451,58 +6372,58 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K31" s="36" t="s">
+      <c r="K31" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="1">
         <v>-2</v>
       </c>
-      <c r="M31" s="18" t="s">
+      <c r="M31" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N31" s="18"/>
-      <c r="O31" s="19" t="s">
+      <c r="N31" s="1"/>
+      <c r="O31" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-    </row>
-    <row r="32" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.8">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="I32" s="36" t="s">
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="I32" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J32" s="36" t="s">
+      <c r="J32" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K32" s="36" t="s">
+      <c r="K32" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="1">
         <v>-1</v>
       </c>
-      <c r="M32" s="36" t="s">
+      <c r="M32" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="N32" s="36" t="s">
+      <c r="N32" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O32" s="19"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A33" s="7" t="s">
@@ -6513,29 +6434,29 @@
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J33" s="18" t="s">
+      <c r="J33" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="1">
         <v>8</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="1">
         <v>1</v>
       </c>
-      <c r="M33" s="18" t="s">
+      <c r="M33" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="N33" s="18"/>
-      <c r="O33" s="19" t="s">
+      <c r="N33" s="1"/>
+      <c r="O33" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" ht="59.65" x14ac:dyDescent="0.8">
       <c r="A34" s="7" t="s">
@@ -6546,31 +6467,31 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="I34" s="36" t="s">
+      <c r="I34" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J34" s="36" t="s">
+      <c r="J34" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K34" s="36" t="s">
+      <c r="K34" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="1">
         <v>-2</v>
       </c>
-      <c r="M34" s="36" t="s">
+      <c r="M34" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N34" s="36" t="s">
+      <c r="N34" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O34" s="19" t="s">
+      <c r="O34" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="79.5" x14ac:dyDescent="0.8">
       <c r="A35" s="7" t="s">
@@ -6581,31 +6502,31 @@
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J35" s="36" t="s">
+      <c r="J35" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K35" s="36" t="s">
+      <c r="K35" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="1">
         <v>-1</v>
       </c>
-      <c r="M35" s="36" t="s">
+      <c r="M35" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="36" t="s">
+      <c r="N35" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O35" s="19" t="s">
+      <c r="O35" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A36" s="7" t="s">
@@ -6616,31 +6537,31 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="I36" s="36" t="s">
+      <c r="I36" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J36" s="36" t="s">
+      <c r="J36" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="1">
         <v>12</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="1">
         <v>1</v>
       </c>
-      <c r="M36" s="36" t="s">
+      <c r="M36" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="N36" s="36">
+      <c r="N36" s="1">
         <v>12</v>
       </c>
-      <c r="O36" s="19" t="s">
+      <c r="O36" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A37" s="7" t="s">
@@ -6651,17 +6572,17 @@
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A38" s="7" t="s">
@@ -6672,17 +6593,17 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A39" s="7" t="s">
@@ -6693,17 +6614,17 @@
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A40" s="7" t="s">
@@ -6714,17 +6635,17 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A41" s="7" t="s">
@@ -6735,17 +6656,17 @@
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A42" s="7" t="s">
@@ -6756,17 +6677,17 @@
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A43" s="7" t="s">
@@ -6777,17 +6698,17 @@
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A44" s="7" t="s">
@@ -6798,17 +6719,17 @@
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="41"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A45" s="7" t="s">
@@ -6819,17 +6740,17 @@
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A46" s="7" t="s">
@@ -6840,17 +6761,17 @@
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A47" s="7" t="s">
@@ -6861,17 +6782,17 @@
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A48" s="7" t="s">
@@ -6882,17 +6803,17 @@
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A49" s="7" t="s">
@@ -6903,17 +6824,17 @@
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A50" s="7" t="s">
@@ -6924,17 +6845,17 @@
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="41"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A51" s="7" t="s">
@@ -6945,17 +6866,17 @@
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A52" s="7" t="s">
@@ -6966,17 +6887,17 @@
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A53" s="7" t="s">
@@ -7329,10 +7250,10 @@
       <c r="D87" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="H8:O38"/>
+  <autoFilter ref="H8:O38" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B87 D2:D87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B87 D2:D87" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"新規,更新,削除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7342,11 +7263,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -7361,11 +7282,11 @@
     <col min="10" max="10" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.71875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="43.71875" style="15" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="43.71875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.8">
@@ -7391,19 +7312,19 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A3" s="7" t="s">
@@ -7414,19 +7335,19 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A4" s="7" t="s">
@@ -7437,37 +7358,37 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="41" t="s">
+      <c r="P4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="41" t="s">
+      <c r="Q4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7480,25 +7401,25 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="41" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="P5" s="41" t="s">
+      <c r="P5" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="Q5" s="41" t="s">
+      <c r="Q5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="R5" s="1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7511,25 +7432,25 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="41" t="s">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="P6" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="Q6" s="41" t="s">
+      <c r="Q6" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="1" t="s">
         <v>400</v>
       </c>
     </row>
@@ -7542,25 +7463,25 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="41">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="1">
         <v>8</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="1">
         <v>8</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="1">
         <v>8</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="1">
         <v>8</v>
       </c>
     </row>
@@ -7580,12 +7501,12 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" ht="20.25" thickTop="1" x14ac:dyDescent="0.8">
       <c r="A9" s="7" t="s">
@@ -7609,16 +7530,16 @@
       <c r="L9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A10" s="7" t="s">
@@ -7629,29 +7550,29 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A11" s="7" t="s">
@@ -7662,29 +7583,29 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A12" s="7" t="s">
@@ -7695,29 +7616,28 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A13" s="7" t="s">
@@ -7728,29 +7648,28 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A14" s="7" t="s">
@@ -7761,60 +7680,58 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-    </row>
-    <row r="15" spans="1:18" s="35" customFormat="1" ht="39.75" x14ac:dyDescent="0.8">
-      <c r="A15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="30" t="s">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="39.75" x14ac:dyDescent="0.8">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="I15" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="1">
         <v>4</v>
       </c>
-      <c r="L15" s="36" t="s">
+      <c r="L15" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19" t="s">
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A16" s="7" t="s">
@@ -7825,27 +7742,26 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="1">
         <v>5</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A17" s="7" t="s">
@@ -7856,29 +7772,28 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A18" s="7" t="s">
@@ -7889,87 +7804,84 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="1">
         <v>2</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-    </row>
-    <row r="19" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.8">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="36" t="s">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="I19" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="1">
         <v>2</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="N19" s="39" t="s">
+      <c r="N19" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-    </row>
-    <row r="20" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.8">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="36" t="s">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="I20" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="1">
         <v>2</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="M20" s="39" t="s">
+      <c r="M20" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="N20" s="39" t="s">
+      <c r="N20" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" ht="39.75" x14ac:dyDescent="0.8">
       <c r="A21" s="7" t="s">
@@ -7980,29 +7892,28 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="1">
         <v>6</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="L21" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="39.75" x14ac:dyDescent="0.8">
       <c r="A22" s="7" t="s">
@@ -8013,28 +7924,28 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="1">
         <v>6</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" ht="39.75" x14ac:dyDescent="0.8">
       <c r="A23" s="7" t="s">
@@ -8045,112 +7956,112 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="1">
         <v>6</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-    </row>
-    <row r="24" spans="1:18" s="35" customFormat="1" ht="39.75" x14ac:dyDescent="0.8">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="I24" s="36" t="s">
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" ht="39.75" x14ac:dyDescent="0.8">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="I24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="1">
         <v>6</v>
       </c>
-      <c r="L24" s="36" t="s">
+      <c r="L24" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-    </row>
-    <row r="25" spans="1:18" s="35" customFormat="1" ht="39.75" x14ac:dyDescent="0.8">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="I25" s="36" t="s">
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" ht="39.75" x14ac:dyDescent="0.8">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="I25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="1">
         <v>6</v>
       </c>
-      <c r="L25" s="36" t="s">
+      <c r="L25" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-    </row>
-    <row r="26" spans="1:18" s="35" customFormat="1" ht="39.75" x14ac:dyDescent="0.8">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="I26" s="36" t="s">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" ht="39.75" x14ac:dyDescent="0.8">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="I26" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="1">
         <v>6</v>
       </c>
-      <c r="L26" s="36" t="s">
+      <c r="L26" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="N26" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="39.75" x14ac:dyDescent="0.8">
       <c r="A27" s="7" t="s">
@@ -8161,28 +8072,28 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="J27" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="1">
         <v>6</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="N27" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A28" s="7" t="s">
@@ -8193,28 +8104,28 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="1">
         <v>2</v>
       </c>
-      <c r="L28" s="18" t="s">
+      <c r="L28" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A29" s="7" t="s">
@@ -8225,28 +8136,28 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="1">
         <v>2</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="L29" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A30" s="7" t="s">
@@ -8257,28 +8168,28 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="1">
         <v>2</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="L30" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A31" s="7" t="s">
@@ -8289,28 +8200,28 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="1">
         <v>2</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="L31" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="N31" s="19" t="s">
+      <c r="N31" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="39.75" x14ac:dyDescent="0.8">
       <c r="A32" s="7" t="s">
@@ -8321,28 +8232,28 @@
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J32" s="18" t="s">
+      <c r="J32" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="1">
         <v>2</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="L32" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A33" s="7" t="s">
@@ -8353,28 +8264,28 @@
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J33" s="18" t="s">
+      <c r="J33" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="K33" s="18" t="s">
+      <c r="K33" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L33" s="18" t="s">
+      <c r="L33" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M33" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N33" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" ht="39.75" x14ac:dyDescent="0.8">
       <c r="A34" s="7" t="s">
@@ -8385,28 +8296,28 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J34" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="K34" s="18" t="s">
+      <c r="K34" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="L34" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="N34" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A35" s="7" t="s">
@@ -8417,28 +8328,28 @@
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="I35" s="28" t="s">
+      <c r="I35" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="J35" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="1">
         <v>10</v>
       </c>
-      <c r="L35" s="18" t="s">
+      <c r="L35" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="N35" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" ht="39.75" x14ac:dyDescent="0.8">
       <c r="A36" s="7" t="s">
@@ -8449,28 +8360,28 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="I36" s="28" t="s">
+      <c r="I36" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K36" s="18" t="s">
+      <c r="K36" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L36" s="18" t="s">
+      <c r="L36" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="M36" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="N36" s="19" t="s">
+      <c r="N36" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A37" s="7" t="s">
@@ -8481,16 +8392,16 @@
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A38" s="7" t="s">
@@ -8501,16 +8412,16 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A39" s="7" t="s">
@@ -8521,16 +8432,16 @@
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A40" s="7" t="s">
@@ -8541,16 +8452,16 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A41" s="7" t="s">
@@ -8561,16 +8472,16 @@
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A42" s="7" t="s">
@@ -8581,16 +8492,16 @@
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A43" s="7" t="s">
@@ -8601,16 +8512,16 @@
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A44" s="7" t="s">
@@ -8621,16 +8532,16 @@
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A45" s="7" t="s">
@@ -8641,16 +8552,16 @@
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A46" s="7" t="s">
@@ -8661,16 +8572,16 @@
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A47" s="7" t="s">
@@ -8681,16 +8592,16 @@
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A48" s="7" t="s">
@@ -8701,16 +8612,16 @@
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A49" s="7" t="s">
@@ -8721,16 +8632,16 @@
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A50" s="7" t="s">
@@ -8741,16 +8652,16 @@
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A51" s="7" t="s">
@@ -8761,16 +8672,16 @@
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A52" s="7" t="s">
@@ -8781,16 +8692,16 @@
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A53" s="7" t="s">
@@ -8801,16 +8712,16 @@
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A54" s="7" t="s">
@@ -8821,16 +8732,16 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A55" s="7" t="s">
@@ -9175,7 +9086,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D88 B2:B88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D88 B2:B88" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"新規,更新,削除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9185,15 +9096,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
   </sheetPr>
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
@@ -9228,7 +9137,7 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="1"/>
@@ -9246,7 +9155,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="1"/>
@@ -9264,7 +9173,7 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="1"/>
@@ -9282,7 +9191,7 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="1"/>
@@ -9300,7 +9209,7 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="1"/>
@@ -9318,7 +9227,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="1"/>
@@ -9370,7 +9279,7 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -9386,7 +9295,7 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -9402,7 +9311,7 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -9418,7 +9327,7 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -9434,7 +9343,7 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -9450,7 +9359,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -9466,7 +9375,7 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -9482,7 +9391,7 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -9498,8 +9407,6 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.8">
       <c r="A19" s="7" t="s">
@@ -9510,7 +9417,6 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.8">
       <c r="A20" s="7" t="s">
@@ -10155,7 +10061,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D83 B2:B83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D83 B2:B83" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"新規,更新,削除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10165,15 +10071,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
   </sheetPr>
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
@@ -11021,7 +10925,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D83 B2:B83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D83 B2:B83" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"新規,更新,削除"</formula1>
     </dataValidation>
   </dataValidations>
